--- a/Tabela e gráfico.xlsx
+++ b/Tabela e gráfico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Faculdade\Unicesumar\Bacharelado Engenharia de Software\1 modulo\Estatistica\atividades\Atividade cap 2 livro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5CF2C1-9E4F-40C2-B55A-17C0B3ADB30C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B1F8CC-7A2F-4532-9F18-E8AC98FB21E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A71E5015-EF8E-4F61-AED6-4380EAD3FFF4}"/>
   </bookViews>
@@ -17,31 +17,17 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$28</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$29:$A$34</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$F$28</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$F$29:$F$34</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$G$28</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$G$29:$G$34</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$A$28:$A$33</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$B$27</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$B$28:$B$33</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$C$27</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$C$28:$C$33</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$D$27</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$28</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$D$28:$D$33</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$E$27</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$E$28:$E$33</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$F$27</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$F$28:$F$33</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$29:$B$34</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$28</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$C$29:$C$34</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$D$28</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$D$29:$D$34</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$E$28</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$E$29:$E$34</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$28:$A$33</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$27</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$F$28:$F$33</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$28:$B$33</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$27</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$28:$C$33</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$D$27</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$D$28:$D$33</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$E$27</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$E$28:$E$33</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$F$27</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -62,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>Informação</t>
   </si>
@@ -100,16 +86,16 @@
     <t>Tempo Resposta</t>
   </si>
   <si>
-    <t>5 | 5.63</t>
+    <t>5,00 - 5,63</t>
   </si>
   <si>
-    <t>5,63 |6.26</t>
+    <t>5,63 - 6,26</t>
   </si>
   <si>
-    <t>6.26 |6.89</t>
+    <t>6,26 - 6,89</t>
   </si>
   <si>
-    <t>6.89 |7.52</t>
+    <t>6,89 - 7,52</t>
   </si>
 </sst>
 </file>
@@ -119,7 +105,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +116,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -156,12 +157,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -172,9 +173,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thin">
-        <color theme="1"/>
+        <color theme="9"/>
       </bottom>
       <diagonal/>
     </border>
@@ -182,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -191,24 +203,32 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -765,7 +785,7 @@
                     </a:effectLst>
                     <a:sp3d/>
                   </c:spPr>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                       <c16:uniqueId val="{0000000D-2D13-49BD-B0E3-1D5F9CCB0DA1}"/>
                     </c:ext>
@@ -790,7 +810,7 @@
                     </a:effectLst>
                     <a:sp3d/>
                   </c:spPr>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                       <c16:uniqueId val="{0000000F-2D13-49BD-B0E3-1D5F9CCB0DA1}"/>
                     </c:ext>
@@ -815,7 +835,7 @@
                     </a:effectLst>
                     <a:sp3d/>
                   </c:spPr>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                       <c16:uniqueId val="{00000011-2D13-49BD-B0E3-1D5F9CCB0DA1}"/>
                     </c:ext>
@@ -963,7 +983,7 @@
                     </a:effectLst>
                     <a:sp3d/>
                   </c:spPr>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                       <c16:uniqueId val="{00000013-2D13-49BD-B0E3-1D5F9CCB0DA1}"/>
                     </c:ext>
@@ -988,7 +1008,7 @@
                     </a:effectLst>
                     <a:sp3d/>
                   </c:spPr>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                       <c16:uniqueId val="{00000015-2D13-49BD-B0E3-1D5F9CCB0DA1}"/>
                     </c:ext>
@@ -1013,7 +1033,7 @@
                     </a:effectLst>
                     <a:sp3d/>
                   </c:spPr>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                       <c16:uniqueId val="{00000017-2D13-49BD-B0E3-1D5F9CCB0DA1}"/>
                     </c:ext>
@@ -1275,15 +1295,15 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$28</c:f>
+              <c:f>Sheet1!$B$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1293,7 +1313,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -1316,51 +1336,57 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$29:$A$32</c:f>
+              <c:f>Sheet1!$A$46:$A$51</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5 | 5.63</c:v>
-                </c:pt>
+                <c:ptCount val="5"/>
                 <c:pt idx="1">
-                  <c:v>5,63 |6.26</c:v>
+                  <c:v>5,00 - 5,63</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.26 |6.89</c:v>
+                  <c:v>5,63 - 6,26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.89 |7.52</c:v>
+                  <c:v>6,26 - 6,89</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6,89 - 7,52</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$29:$B$32</c:f>
+              <c:f>Sheet1!$B$46:$B$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1989-4E31-86F6-9D304E7CB2A3}"/>
+              <c16:uniqueId val="{00000000-7665-493C-84E9-69807297316B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1372,30 +1398,19 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1801787520"/>
-        <c:axId val="1801783776"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1801787520"/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1929177776"/>
+        <c:axId val="1929178608"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1929177776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1404,8 +1419,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1432,12 +1447,15 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1801783776"/>
+        <c:crossAx val="1929178608"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="1801783776"/>
+        <c:axId val="1929178608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1457,20 +1475,14 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1494,9 +1506,9 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1801787520"/>
+        <c:crossAx val="1929177776"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1555,42 +1567,42 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.14</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.16</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.14</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.18</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.14</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.20</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.14</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.22</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.14</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.24</cx:f>
+        <cx:f>_xlchart.v1.10</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1628,7 +1640,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{18D0A08D-E642-4BBE-B946-42FD6E5FD911}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.15</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v/>
             </cx:txData>
           </cx:tx>
@@ -1644,7 +1656,7 @@
         <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{3326ABC6-16E6-45F4-B80C-A7B5E8CCA8B1}" formatIdx="2">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.17</cx:f>
+              <cx:f>_xlchart.v1.3</cx:f>
               <cx:v/>
             </cx:txData>
           </cx:tx>
@@ -1660,7 +1672,7 @@
         <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{0DA6E67B-81CF-4541-BDEB-88FE80826ED1}" formatIdx="4">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.19</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v/>
             </cx:txData>
           </cx:tx>
@@ -1676,7 +1688,7 @@
         <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{B4A31E6D-3267-41B1-8E1B-268933793F8E}" formatIdx="6">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.21</cx:f>
+              <cx:f>_xlchart.v1.7</cx:f>
               <cx:v/>
             </cx:txData>
           </cx:tx>
@@ -1692,7 +1704,7 @@
         <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{6A30D70A-67FA-463D-BF95-D75015FEEA1D}" formatIdx="8">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.23</cx:f>
+              <cx:f>_xlchart.v1.9</cx:f>
               <cx:v/>
             </cx:txData>
           </cx:tx>
@@ -2955,7 +2967,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2982,8 +2994,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3084,7 +3096,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3116,10 +3128,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3159,23 +3171,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3280,8 +3291,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3413,20 +3424,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3440,17 +3450,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3555,7 +3554,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7629525" y="4233862"/>
+              <a:off x="7743825" y="4233862"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3588,23 +3587,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>471487</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>166687</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25D82107-8E78-4714-96A5-A33CD845AC0A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94188067-AD33-47BD-B7AE-37D712F1D9DB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3659,8 +3658,8 @@
   <autoFilter ref="A28:F33" xr:uid="{893803DB-A0E2-43B0-93F0-330812CAC7A5}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{755B95CA-CEDF-4229-9AD7-DF5451F93699}" name="Tempo Resposta"/>
-    <tableColumn id="2" xr3:uid="{CC061C12-1E67-4943-9473-CEAE8899F828}" name="F.I" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{C49B8674-830B-45D2-9FFD-A21ADACB5AF4}" name="F.R%" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{CC061C12-1E67-4943-9473-CEAE8899F828}" name="F.I" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{C49B8674-830B-45D2-9FFD-A21ADACB5AF4}" name="F.R%" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{093F8052-5236-4F86-BA2A-7FE96F6929F9}" name="FAC"/>
     <tableColumn id="5" xr3:uid="{E6758584-A80C-4625-A8E6-32BD66FE306F}" name="FRAC%"/>
     <tableColumn id="6" xr3:uid="{7F0385E6-85CA-413D-98F3-B218FAD3C844}" name="X.I"/>
@@ -3978,10 +3977,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E16002E8-8576-48F4-BC5B-C3B2400B84ED}">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4278,7 +4277,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B29" s="1">
@@ -4290,15 +4289,15 @@
       <c r="D29">
         <v>1</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="8">
         <v>0.16</v>
       </c>
-      <c r="F29" s="12">
+      <c r="F29" s="9">
         <v>5315</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B30" s="1">
@@ -4310,7 +4309,7 @@
       <c r="D30">
         <v>5</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="8">
         <v>0.3125</v>
       </c>
       <c r="F30">
@@ -4318,7 +4317,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B31" s="1">
@@ -4330,7 +4329,7 @@
       <c r="D31">
         <v>12</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="8">
         <v>0.75</v>
       </c>
       <c r="F31">
@@ -4338,7 +4337,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B32" s="1">
@@ -4350,7 +4349,7 @@
       <c r="D32">
         <v>16</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E32" s="8">
         <v>1</v>
       </c>
       <c r="F32">
@@ -4373,62 +4372,100 @@
         <f>SUM(D29:D32)</f>
         <v>34</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E33" s="10">
         <f>SUM(E29:E32)</f>
         <v>2.2225000000000001</v>
       </c>
-      <c r="F33" s="14">
+      <c r="F33" s="11">
         <f>SUM(F29:F32)</f>
         <v>5334.7249999999995</v>
       </c>
     </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="12"/>
+    </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
+      <c r="A37" s="12"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
+      <c r="A38" s="12"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
+      <c r="A39" s="12"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="9"/>
+      <c r="A40" s="12"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
+      <c r="A41" s="12"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="9"/>
+      <c r="A42" s="12"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
+      <c r="A43" s="12"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="9"/>
+      <c r="A44" s="12"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="9"/>
+      <c r="A45" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="22"/>
+      <c r="B46" s="23">
+        <v>0</v>
+      </c>
+      <c r="C46" s="3"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
+      <c r="A47" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="18">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="9"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="9"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="8"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="10"/>
+      <c r="A48" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" s="18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="15"/>
+      <c r="B51" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="12"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
